--- a/world_info/scraper/StarRiverArts.xlsx
+++ b/world_info/scraper/StarRiverArts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4374,6 +4374,1944 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2096</v>
+      </c>
+      <c r="G74" t="n">
+        <v>32</v>
+      </c>
+      <c r="H74" t="n">
+        <v>108</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>12</v>
+      </c>
+      <c r="L74" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2096</v>
+      </c>
+      <c r="G75" t="n">
+        <v>32</v>
+      </c>
+      <c r="H75" t="n">
+        <v>108</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>12</v>
+      </c>
+      <c r="L75" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>49</v>
+      </c>
+      <c r="G76" t="n">
+        <v>32</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>49</v>
+      </c>
+      <c r="M76" t="n">
+        <v>22</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>49</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>49</v>
+      </c>
+      <c r="M77" t="n">
+        <v>22</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>32</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>30</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>32</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>30</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>49</v>
+      </c>
+      <c r="G80" t="n">
+        <v>32</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>32</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>49</v>
+      </c>
+      <c r="G81" t="n">
+        <v>32</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>32</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>731</v>
+      </c>
+      <c r="G82" t="n">
+        <v>32</v>
+      </c>
+      <c r="H82" t="n">
+        <v>66</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15</v>
+      </c>
+      <c r="L82" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="M82" t="n">
+        <v>69</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>731</v>
+      </c>
+      <c r="G83" t="n">
+        <v>32</v>
+      </c>
+      <c r="H83" t="n">
+        <v>66</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15</v>
+      </c>
+      <c r="L83" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="M83" t="n">
+        <v>69</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>79</v>
+      </c>
+      <c r="G84" t="n">
+        <v>32</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M84" t="n">
+        <v>79</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>79</v>
+      </c>
+      <c r="G85" t="n">
+        <v>32</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M85" t="n">
+        <v>79</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>67</v>
+      </c>
+      <c r="G86" t="n">
+        <v>32</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>82</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>67</v>
+      </c>
+      <c r="G87" t="n">
+        <v>32</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>82</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>788</v>
+      </c>
+      <c r="G88" t="n">
+        <v>32</v>
+      </c>
+      <c r="H88" t="n">
+        <v>13</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>24</v>
+      </c>
+      <c r="L88" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M88" t="n">
+        <v>88</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>788</v>
+      </c>
+      <c r="G89" t="n">
+        <v>32</v>
+      </c>
+      <c r="H89" t="n">
+        <v>13</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>24</v>
+      </c>
+      <c r="L89" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M89" t="n">
+        <v>88</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>114</v>
+      </c>
+      <c r="G90" t="n">
+        <v>16</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M90" t="n">
+        <v>116</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>114</v>
+      </c>
+      <c r="G91" t="n">
+        <v>16</v>
+      </c>
+      <c r="H91" t="n">
+        <v>16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M91" t="n">
+        <v>116</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>218</v>
+      </c>
+      <c r="G92" t="n">
+        <v>32</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>118</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>218</v>
+      </c>
+      <c r="G93" t="n">
+        <v>32</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>118</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>20</v>
+      </c>
+      <c r="G94" t="n">
+        <v>32</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>253</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="n">
+        <v>32</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>253</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G96" t="n">
+        <v>32</v>
+      </c>
+      <c r="H96" t="n">
+        <v>180</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M96" t="n">
+        <v>317</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G97" t="n">
+        <v>32</v>
+      </c>
+      <c r="H97" t="n">
+        <v>180</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M97" t="n">
+        <v>317</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>116</v>
+      </c>
+      <c r="G98" t="n">
+        <v>32</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4</v>
+      </c>
+      <c r="L98" t="n">
+        <v>58</v>
+      </c>
+      <c r="M98" t="n">
+        <v>324</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>116</v>
+      </c>
+      <c r="G99" t="n">
+        <v>32</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
+      <c r="L99" t="n">
+        <v>58</v>
+      </c>
+      <c r="M99" t="n">
+        <v>324</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>362</v>
+      </c>
+      <c r="G100" t="n">
+        <v>32</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M100" t="n">
+        <v>378</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>362</v>
+      </c>
+      <c r="G101" t="n">
+        <v>32</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M101" t="n">
+        <v>378</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>49</v>
+      </c>
+      <c r="G102" t="n">
+        <v>16</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>389</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>49</v>
+      </c>
+      <c r="G103" t="n">
+        <v>16</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>389</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>587</v>
+      </c>
+      <c r="G104" t="n">
+        <v>8</v>
+      </c>
+      <c r="H104" t="n">
+        <v>34</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>263</v>
+      </c>
+      <c r="L104" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="M104" t="n">
+        <v>389</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>587</v>
+      </c>
+      <c r="G105" t="n">
+        <v>8</v>
+      </c>
+      <c r="H105" t="n">
+        <v>34</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>263</v>
+      </c>
+      <c r="L105" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="M105" t="n">
+        <v>389</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>32</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>426</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>32</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>426</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>32</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>605</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>11</v>
+      </c>
+      <c r="G109" t="n">
+        <v>32</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>605</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/world_info/scraper/StarRiverArts.xlsx
+++ b/world_info/scraper/StarRiverArts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,6 +6312,2006 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>2103</v>
+      </c>
+      <c r="G110" t="n">
+        <v>32</v>
+      </c>
+      <c r="H110" t="n">
+        <v>108</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12</v>
+      </c>
+      <c r="L110" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2103</v>
+      </c>
+      <c r="G111" t="n">
+        <v>32</v>
+      </c>
+      <c r="H111" t="n">
+        <v>108</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>12</v>
+      </c>
+      <c r="L111" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>49</v>
+      </c>
+      <c r="G112" t="n">
+        <v>32</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>49</v>
+      </c>
+      <c r="M112" t="n">
+        <v>23</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>49</v>
+      </c>
+      <c r="G113" t="n">
+        <v>32</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>49</v>
+      </c>
+      <c r="M113" t="n">
+        <v>23</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>32</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>31</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>32</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>31</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>49</v>
+      </c>
+      <c r="G116" t="n">
+        <v>32</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>33</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>49</v>
+      </c>
+      <c r="G117" t="n">
+        <v>32</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>33</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>732</v>
+      </c>
+      <c r="G118" t="n">
+        <v>32</v>
+      </c>
+      <c r="H118" t="n">
+        <v>67</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4</v>
+      </c>
+      <c r="K118" t="n">
+        <v>15</v>
+      </c>
+      <c r="L118" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="M118" t="n">
+        <v>70</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>732</v>
+      </c>
+      <c r="G119" t="n">
+        <v>32</v>
+      </c>
+      <c r="H119" t="n">
+        <v>67</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15</v>
+      </c>
+      <c r="L119" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="M119" t="n">
+        <v>70</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>79</v>
+      </c>
+      <c r="G120" t="n">
+        <v>32</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M120" t="n">
+        <v>80</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>79</v>
+      </c>
+      <c r="G121" t="n">
+        <v>32</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>80</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>67</v>
+      </c>
+      <c r="G122" t="n">
+        <v>32</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>83</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>67</v>
+      </c>
+      <c r="G123" t="n">
+        <v>32</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>83</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>788</v>
+      </c>
+      <c r="G124" t="n">
+        <v>32</v>
+      </c>
+      <c r="H124" t="n">
+        <v>13</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>24</v>
+      </c>
+      <c r="L124" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M124" t="n">
+        <v>89</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>788</v>
+      </c>
+      <c r="G125" t="n">
+        <v>32</v>
+      </c>
+      <c r="H125" t="n">
+        <v>13</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>24</v>
+      </c>
+      <c r="L125" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M125" t="n">
+        <v>89</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>114</v>
+      </c>
+      <c r="G126" t="n">
+        <v>16</v>
+      </c>
+      <c r="H126" t="n">
+        <v>16</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M126" t="n">
+        <v>117</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>114</v>
+      </c>
+      <c r="G127" t="n">
+        <v>16</v>
+      </c>
+      <c r="H127" t="n">
+        <v>16</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M127" t="n">
+        <v>117</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>221</v>
+      </c>
+      <c r="G128" t="n">
+        <v>32</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>119</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>221</v>
+      </c>
+      <c r="G129" t="n">
+        <v>32</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>119</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>20</v>
+      </c>
+      <c r="G130" t="n">
+        <v>32</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>254</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>20</v>
+      </c>
+      <c r="G131" t="n">
+        <v>32</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>254</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G132" t="n">
+        <v>32</v>
+      </c>
+      <c r="H132" t="n">
+        <v>180</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M132" t="n">
+        <v>318</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G133" t="n">
+        <v>32</v>
+      </c>
+      <c r="H133" t="n">
+        <v>180</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5</v>
+      </c>
+      <c r="K133" t="n">
+        <v>5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M133" t="n">
+        <v>318</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>116</v>
+      </c>
+      <c r="G134" t="n">
+        <v>32</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>58</v>
+      </c>
+      <c r="M134" t="n">
+        <v>325</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>116</v>
+      </c>
+      <c r="G135" t="n">
+        <v>32</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>58</v>
+      </c>
+      <c r="M135" t="n">
+        <v>325</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>362</v>
+      </c>
+      <c r="G136" t="n">
+        <v>32</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M136" t="n">
+        <v>379</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>362</v>
+      </c>
+      <c r="G137" t="n">
+        <v>32</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M137" t="n">
+        <v>379</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>49</v>
+      </c>
+      <c r="G138" t="n">
+        <v>16</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>390</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>49</v>
+      </c>
+      <c r="G139" t="n">
+        <v>16</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>390</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>589</v>
+      </c>
+      <c r="G140" t="n">
+        <v>8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>34</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>263</v>
+      </c>
+      <c r="L140" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M140" t="n">
+        <v>390</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>589</v>
+      </c>
+      <c r="G141" t="n">
+        <v>8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>34</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>263</v>
+      </c>
+      <c r="L141" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M141" t="n">
+        <v>390</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>32</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>427</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>32</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>427</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>11</v>
+      </c>
+      <c r="G144" t="n">
+        <v>32</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>606</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>11</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>606</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/world_info/scraper/StarRiverArts.xlsx
+++ b/world_info/scraper/StarRiverArts.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O511"/>
+  <dimension ref="A1:O655"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
       <selection activeCell="A182" sqref="A182:O511"/>
@@ -25288,6 +25288,7758 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G512" t="n">
+        <v>32</v>
+      </c>
+      <c r="H512" t="n">
+        <v>110</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3</v>
+      </c>
+      <c r="J512" t="n">
+        <v>5</v>
+      </c>
+      <c r="K512" t="n">
+        <v>12</v>
+      </c>
+      <c r="L512" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M512" t="n">
+        <v>6</v>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O512" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G513" t="n">
+        <v>32</v>
+      </c>
+      <c r="H513" t="n">
+        <v>110</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3</v>
+      </c>
+      <c r="J513" t="n">
+        <v>5</v>
+      </c>
+      <c r="K513" t="n">
+        <v>12</v>
+      </c>
+      <c r="L513" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M513" t="n">
+        <v>6</v>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O513" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>49</v>
+      </c>
+      <c r="G514" t="n">
+        <v>32</v>
+      </c>
+      <c r="H514" t="n">
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0</v>
+      </c>
+      <c r="J514" t="n">
+        <v>3</v>
+      </c>
+      <c r="L514" t="n">
+        <v>49</v>
+      </c>
+      <c r="M514" t="n">
+        <v>26</v>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>49</v>
+      </c>
+      <c r="G515" t="n">
+        <v>32</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>3</v>
+      </c>
+      <c r="L515" t="n">
+        <v>49</v>
+      </c>
+      <c r="M515" t="n">
+        <v>26</v>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>3</v>
+      </c>
+      <c r="G516" t="n">
+        <v>32</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>33</v>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>3</v>
+      </c>
+      <c r="G517" t="n">
+        <v>32</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>33</v>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>49</v>
+      </c>
+      <c r="G518" t="n">
+        <v>32</v>
+      </c>
+      <c r="H518" t="n">
+        <v>2</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2</v>
+      </c>
+      <c r="J518" t="n">
+        <v>3</v>
+      </c>
+      <c r="L518" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M518" t="n">
+        <v>36</v>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>49</v>
+      </c>
+      <c r="G519" t="n">
+        <v>32</v>
+      </c>
+      <c r="H519" t="n">
+        <v>2</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2</v>
+      </c>
+      <c r="J519" t="n">
+        <v>3</v>
+      </c>
+      <c r="L519" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M519" t="n">
+        <v>36</v>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>735</v>
+      </c>
+      <c r="G520" t="n">
+        <v>32</v>
+      </c>
+      <c r="H520" t="n">
+        <v>67</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J520" t="n">
+        <v>4</v>
+      </c>
+      <c r="K520" t="n">
+        <v>15</v>
+      </c>
+      <c r="L520" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M520" t="n">
+        <v>73</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O520" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>735</v>
+      </c>
+      <c r="G521" t="n">
+        <v>32</v>
+      </c>
+      <c r="H521" t="n">
+        <v>67</v>
+      </c>
+      <c r="I521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J521" t="n">
+        <v>4</v>
+      </c>
+      <c r="K521" t="n">
+        <v>15</v>
+      </c>
+      <c r="L521" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M521" t="n">
+        <v>73</v>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O521" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>79</v>
+      </c>
+      <c r="G522" t="n">
+        <v>32</v>
+      </c>
+      <c r="H522" t="n">
+        <v>2</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
+      <c r="J522" t="n">
+        <v>3</v>
+      </c>
+      <c r="L522" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M522" t="n">
+        <v>83</v>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>79</v>
+      </c>
+      <c r="G523" t="n">
+        <v>32</v>
+      </c>
+      <c r="H523" t="n">
+        <v>2</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J523" t="n">
+        <v>3</v>
+      </c>
+      <c r="L523" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M523" t="n">
+        <v>83</v>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>67</v>
+      </c>
+      <c r="G524" t="n">
+        <v>32</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>86</v>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>67</v>
+      </c>
+      <c r="G525" t="n">
+        <v>32</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>86</v>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>788</v>
+      </c>
+      <c r="G526" t="n">
+        <v>32</v>
+      </c>
+      <c r="H526" t="n">
+        <v>13</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
+      <c r="J526" t="n">
+        <v>4</v>
+      </c>
+      <c r="K526" t="n">
+        <v>24</v>
+      </c>
+      <c r="L526" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M526" t="n">
+        <v>91</v>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O526" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>788</v>
+      </c>
+      <c r="G527" t="n">
+        <v>32</v>
+      </c>
+      <c r="H527" t="n">
+        <v>13</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="J527" t="n">
+        <v>4</v>
+      </c>
+      <c r="K527" t="n">
+        <v>24</v>
+      </c>
+      <c r="L527" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M527" t="n">
+        <v>91</v>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O527" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>116</v>
+      </c>
+      <c r="G528" t="n">
+        <v>16</v>
+      </c>
+      <c r="H528" t="n">
+        <v>16</v>
+      </c>
+      <c r="I528" t="n">
+        <v>1</v>
+      </c>
+      <c r="J528" t="n">
+        <v>3</v>
+      </c>
+      <c r="L528" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M528" t="n">
+        <v>120</v>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>116</v>
+      </c>
+      <c r="G529" t="n">
+        <v>16</v>
+      </c>
+      <c r="H529" t="n">
+        <v>16</v>
+      </c>
+      <c r="I529" t="n">
+        <v>1</v>
+      </c>
+      <c r="J529" t="n">
+        <v>3</v>
+      </c>
+      <c r="L529" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M529" t="n">
+        <v>120</v>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>224</v>
+      </c>
+      <c r="G530" t="n">
+        <v>32</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>122</v>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>224</v>
+      </c>
+      <c r="G531" t="n">
+        <v>32</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>122</v>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>20</v>
+      </c>
+      <c r="G532" t="n">
+        <v>32</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>257</v>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>20</v>
+      </c>
+      <c r="G533" t="n">
+        <v>32</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>257</v>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G534" t="n">
+        <v>32</v>
+      </c>
+      <c r="H534" t="n">
+        <v>181</v>
+      </c>
+      <c r="I534" t="n">
+        <v>1</v>
+      </c>
+      <c r="J534" t="n">
+        <v>5</v>
+      </c>
+      <c r="K534" t="n">
+        <v>5</v>
+      </c>
+      <c r="L534" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M534" t="n">
+        <v>321</v>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O534" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G535" t="n">
+        <v>32</v>
+      </c>
+      <c r="H535" t="n">
+        <v>181</v>
+      </c>
+      <c r="I535" t="n">
+        <v>1</v>
+      </c>
+      <c r="J535" t="n">
+        <v>5</v>
+      </c>
+      <c r="K535" t="n">
+        <v>5</v>
+      </c>
+      <c r="L535" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M535" t="n">
+        <v>321</v>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O535" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>116</v>
+      </c>
+      <c r="G536" t="n">
+        <v>32</v>
+      </c>
+      <c r="H536" t="n">
+        <v>2</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>4</v>
+      </c>
+      <c r="L536" t="n">
+        <v>58</v>
+      </c>
+      <c r="M536" t="n">
+        <v>327</v>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>116</v>
+      </c>
+      <c r="G537" t="n">
+        <v>32</v>
+      </c>
+      <c r="H537" t="n">
+        <v>2</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>4</v>
+      </c>
+      <c r="L537" t="n">
+        <v>58</v>
+      </c>
+      <c r="M537" t="n">
+        <v>327</v>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>362</v>
+      </c>
+      <c r="G538" t="n">
+        <v>32</v>
+      </c>
+      <c r="H538" t="n">
+        <v>3</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
+      <c r="J538" t="n">
+        <v>4</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M538" t="n">
+        <v>381</v>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O538" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>362</v>
+      </c>
+      <c r="G539" t="n">
+        <v>32</v>
+      </c>
+      <c r="H539" t="n">
+        <v>3</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>4</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M539" t="n">
+        <v>381</v>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O539" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>49</v>
+      </c>
+      <c r="G540" t="n">
+        <v>16</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>393</v>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>49</v>
+      </c>
+      <c r="G541" t="n">
+        <v>16</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>393</v>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>595</v>
+      </c>
+      <c r="G542" t="n">
+        <v>8</v>
+      </c>
+      <c r="H542" t="n">
+        <v>34</v>
+      </c>
+      <c r="I542" t="n">
+        <v>4</v>
+      </c>
+      <c r="J542" t="n">
+        <v>4</v>
+      </c>
+      <c r="K542" t="n">
+        <v>263</v>
+      </c>
+      <c r="L542" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M542" t="n">
+        <v>393</v>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O542" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>595</v>
+      </c>
+      <c r="G543" t="n">
+        <v>8</v>
+      </c>
+      <c r="H543" t="n">
+        <v>34</v>
+      </c>
+      <c r="I543" t="n">
+        <v>4</v>
+      </c>
+      <c r="J543" t="n">
+        <v>4</v>
+      </c>
+      <c r="K543" t="n">
+        <v>263</v>
+      </c>
+      <c r="L543" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M543" t="n">
+        <v>393</v>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O543" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>2</v>
+      </c>
+      <c r="G544" t="n">
+        <v>32</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>429</v>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>2</v>
+      </c>
+      <c r="G545" t="n">
+        <v>32</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>429</v>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>11</v>
+      </c>
+      <c r="G546" t="n">
+        <v>32</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>608</v>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>11</v>
+      </c>
+      <c r="G547" t="n">
+        <v>32</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>608</v>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G548" t="n">
+        <v>32</v>
+      </c>
+      <c r="H548" t="n">
+        <v>110</v>
+      </c>
+      <c r="I548" t="n">
+        <v>3</v>
+      </c>
+      <c r="J548" t="n">
+        <v>5</v>
+      </c>
+      <c r="K548" t="n">
+        <v>12</v>
+      </c>
+      <c r="L548" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M548" t="n">
+        <v>6</v>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O548" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G549" t="n">
+        <v>32</v>
+      </c>
+      <c r="H549" t="n">
+        <v>110</v>
+      </c>
+      <c r="I549" t="n">
+        <v>3</v>
+      </c>
+      <c r="J549" t="n">
+        <v>5</v>
+      </c>
+      <c r="K549" t="n">
+        <v>12</v>
+      </c>
+      <c r="L549" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M549" t="n">
+        <v>6</v>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O549" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>49</v>
+      </c>
+      <c r="G550" t="n">
+        <v>32</v>
+      </c>
+      <c r="H550" t="n">
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
+      <c r="J550" t="n">
+        <v>3</v>
+      </c>
+      <c r="L550" t="n">
+        <v>49</v>
+      </c>
+      <c r="M550" t="n">
+        <v>26</v>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>49</v>
+      </c>
+      <c r="G551" t="n">
+        <v>32</v>
+      </c>
+      <c r="H551" t="n">
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0</v>
+      </c>
+      <c r="J551" t="n">
+        <v>3</v>
+      </c>
+      <c r="L551" t="n">
+        <v>49</v>
+      </c>
+      <c r="M551" t="n">
+        <v>26</v>
+      </c>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>3</v>
+      </c>
+      <c r="G552" t="n">
+        <v>32</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>33</v>
+      </c>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>3</v>
+      </c>
+      <c r="G553" t="n">
+        <v>32</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>33</v>
+      </c>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>49</v>
+      </c>
+      <c r="G554" t="n">
+        <v>32</v>
+      </c>
+      <c r="H554" t="n">
+        <v>2</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2</v>
+      </c>
+      <c r="J554" t="n">
+        <v>3</v>
+      </c>
+      <c r="L554" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M554" t="n">
+        <v>36</v>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>49</v>
+      </c>
+      <c r="G555" t="n">
+        <v>32</v>
+      </c>
+      <c r="H555" t="n">
+        <v>2</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2</v>
+      </c>
+      <c r="J555" t="n">
+        <v>3</v>
+      </c>
+      <c r="L555" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M555" t="n">
+        <v>36</v>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>735</v>
+      </c>
+      <c r="G556" t="n">
+        <v>32</v>
+      </c>
+      <c r="H556" t="n">
+        <v>67</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2</v>
+      </c>
+      <c r="J556" t="n">
+        <v>4</v>
+      </c>
+      <c r="K556" t="n">
+        <v>15</v>
+      </c>
+      <c r="L556" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M556" t="n">
+        <v>73</v>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O556" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>735</v>
+      </c>
+      <c r="G557" t="n">
+        <v>32</v>
+      </c>
+      <c r="H557" t="n">
+        <v>67</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2</v>
+      </c>
+      <c r="J557" t="n">
+        <v>4</v>
+      </c>
+      <c r="K557" t="n">
+        <v>15</v>
+      </c>
+      <c r="L557" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M557" t="n">
+        <v>73</v>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O557" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>79</v>
+      </c>
+      <c r="G558" t="n">
+        <v>32</v>
+      </c>
+      <c r="H558" t="n">
+        <v>2</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
+      <c r="J558" t="n">
+        <v>3</v>
+      </c>
+      <c r="L558" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M558" t="n">
+        <v>83</v>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>79</v>
+      </c>
+      <c r="G559" t="n">
+        <v>32</v>
+      </c>
+      <c r="H559" t="n">
+        <v>2</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
+      <c r="J559" t="n">
+        <v>3</v>
+      </c>
+      <c r="L559" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M559" t="n">
+        <v>83</v>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>68</v>
+      </c>
+      <c r="G560" t="n">
+        <v>32</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>86</v>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>68</v>
+      </c>
+      <c r="G561" t="n">
+        <v>32</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>86</v>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>788</v>
+      </c>
+      <c r="G562" t="n">
+        <v>32</v>
+      </c>
+      <c r="H562" t="n">
+        <v>13</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0</v>
+      </c>
+      <c r="J562" t="n">
+        <v>4</v>
+      </c>
+      <c r="K562" t="n">
+        <v>24</v>
+      </c>
+      <c r="L562" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M562" t="n">
+        <v>91</v>
+      </c>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O562" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>788</v>
+      </c>
+      <c r="G563" t="n">
+        <v>32</v>
+      </c>
+      <c r="H563" t="n">
+        <v>13</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0</v>
+      </c>
+      <c r="J563" t="n">
+        <v>4</v>
+      </c>
+      <c r="K563" t="n">
+        <v>24</v>
+      </c>
+      <c r="L563" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M563" t="n">
+        <v>91</v>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O563" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>116</v>
+      </c>
+      <c r="G564" t="n">
+        <v>16</v>
+      </c>
+      <c r="H564" t="n">
+        <v>16</v>
+      </c>
+      <c r="I564" t="n">
+        <v>1</v>
+      </c>
+      <c r="J564" t="n">
+        <v>3</v>
+      </c>
+      <c r="L564" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M564" t="n">
+        <v>120</v>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>116</v>
+      </c>
+      <c r="G565" t="n">
+        <v>16</v>
+      </c>
+      <c r="H565" t="n">
+        <v>16</v>
+      </c>
+      <c r="I565" t="n">
+        <v>1</v>
+      </c>
+      <c r="J565" t="n">
+        <v>3</v>
+      </c>
+      <c r="L565" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M565" t="n">
+        <v>120</v>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>224</v>
+      </c>
+      <c r="G566" t="n">
+        <v>32</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>122</v>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>224</v>
+      </c>
+      <c r="G567" t="n">
+        <v>32</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>122</v>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>20</v>
+      </c>
+      <c r="G568" t="n">
+        <v>32</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>257</v>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>20</v>
+      </c>
+      <c r="G569" t="n">
+        <v>32</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>257</v>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G570" t="n">
+        <v>32</v>
+      </c>
+      <c r="H570" t="n">
+        <v>181</v>
+      </c>
+      <c r="I570" t="n">
+        <v>1</v>
+      </c>
+      <c r="J570" t="n">
+        <v>5</v>
+      </c>
+      <c r="K570" t="n">
+        <v>5</v>
+      </c>
+      <c r="L570" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M570" t="n">
+        <v>321</v>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O570" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G571" t="n">
+        <v>32</v>
+      </c>
+      <c r="H571" t="n">
+        <v>181</v>
+      </c>
+      <c r="I571" t="n">
+        <v>1</v>
+      </c>
+      <c r="J571" t="n">
+        <v>5</v>
+      </c>
+      <c r="K571" t="n">
+        <v>5</v>
+      </c>
+      <c r="L571" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M571" t="n">
+        <v>321</v>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O571" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>116</v>
+      </c>
+      <c r="G572" t="n">
+        <v>32</v>
+      </c>
+      <c r="H572" t="n">
+        <v>2</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
+      <c r="J572" t="n">
+        <v>4</v>
+      </c>
+      <c r="L572" t="n">
+        <v>58</v>
+      </c>
+      <c r="M572" t="n">
+        <v>327</v>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>116</v>
+      </c>
+      <c r="G573" t="n">
+        <v>32</v>
+      </c>
+      <c r="H573" t="n">
+        <v>2</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0</v>
+      </c>
+      <c r="J573" t="n">
+        <v>4</v>
+      </c>
+      <c r="L573" t="n">
+        <v>58</v>
+      </c>
+      <c r="M573" t="n">
+        <v>327</v>
+      </c>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>362</v>
+      </c>
+      <c r="G574" t="n">
+        <v>32</v>
+      </c>
+      <c r="H574" t="n">
+        <v>3</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J574" t="n">
+        <v>4</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M574" t="n">
+        <v>381</v>
+      </c>
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O574" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>362</v>
+      </c>
+      <c r="G575" t="n">
+        <v>32</v>
+      </c>
+      <c r="H575" t="n">
+        <v>3</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0</v>
+      </c>
+      <c r="J575" t="n">
+        <v>4</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L575" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M575" t="n">
+        <v>381</v>
+      </c>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O575" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>49</v>
+      </c>
+      <c r="G576" t="n">
+        <v>16</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>393</v>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>49</v>
+      </c>
+      <c r="G577" t="n">
+        <v>16</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>393</v>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>595</v>
+      </c>
+      <c r="G578" t="n">
+        <v>8</v>
+      </c>
+      <c r="H578" t="n">
+        <v>34</v>
+      </c>
+      <c r="I578" t="n">
+        <v>4</v>
+      </c>
+      <c r="J578" t="n">
+        <v>4</v>
+      </c>
+      <c r="K578" t="n">
+        <v>263</v>
+      </c>
+      <c r="L578" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M578" t="n">
+        <v>393</v>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O578" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>595</v>
+      </c>
+      <c r="G579" t="n">
+        <v>8</v>
+      </c>
+      <c r="H579" t="n">
+        <v>34</v>
+      </c>
+      <c r="I579" t="n">
+        <v>4</v>
+      </c>
+      <c r="J579" t="n">
+        <v>4</v>
+      </c>
+      <c r="K579" t="n">
+        <v>263</v>
+      </c>
+      <c r="L579" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M579" t="n">
+        <v>393</v>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O579" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>2</v>
+      </c>
+      <c r="G580" t="n">
+        <v>32</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>429</v>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>2</v>
+      </c>
+      <c r="G581" t="n">
+        <v>32</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>429</v>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>11</v>
+      </c>
+      <c r="G582" t="n">
+        <v>32</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>608</v>
+      </c>
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>11</v>
+      </c>
+      <c r="G583" t="n">
+        <v>32</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>608</v>
+      </c>
+      <c r="N583" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>2116</v>
+      </c>
+      <c r="G584" t="n">
+        <v>32</v>
+      </c>
+      <c r="H584" t="n">
+        <v>109</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3</v>
+      </c>
+      <c r="J584" t="n">
+        <v>5</v>
+      </c>
+      <c r="K584" t="n">
+        <v>12</v>
+      </c>
+      <c r="L584" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M584" t="n">
+        <v>6</v>
+      </c>
+      <c r="N584" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O584" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>2116</v>
+      </c>
+      <c r="G585" t="n">
+        <v>32</v>
+      </c>
+      <c r="H585" t="n">
+        <v>109</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3</v>
+      </c>
+      <c r="J585" t="n">
+        <v>5</v>
+      </c>
+      <c r="K585" t="n">
+        <v>12</v>
+      </c>
+      <c r="L585" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M585" t="n">
+        <v>6</v>
+      </c>
+      <c r="N585" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O585" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>49</v>
+      </c>
+      <c r="G586" t="n">
+        <v>32</v>
+      </c>
+      <c r="H586" t="n">
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" t="n">
+        <v>3</v>
+      </c>
+      <c r="L586" t="n">
+        <v>49</v>
+      </c>
+      <c r="M586" t="n">
+        <v>26</v>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>49</v>
+      </c>
+      <c r="G587" t="n">
+        <v>32</v>
+      </c>
+      <c r="H587" t="n">
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0</v>
+      </c>
+      <c r="J587" t="n">
+        <v>3</v>
+      </c>
+      <c r="L587" t="n">
+        <v>49</v>
+      </c>
+      <c r="M587" t="n">
+        <v>26</v>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>3</v>
+      </c>
+      <c r="G588" t="n">
+        <v>32</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>33</v>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>3</v>
+      </c>
+      <c r="G589" t="n">
+        <v>32</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>33</v>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>49</v>
+      </c>
+      <c r="G590" t="n">
+        <v>32</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0</v>
+      </c>
+      <c r="J590" t="n">
+        <v>3</v>
+      </c>
+      <c r="L590" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M590" t="n">
+        <v>36</v>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>49</v>
+      </c>
+      <c r="G591" t="n">
+        <v>32</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0</v>
+      </c>
+      <c r="J591" t="n">
+        <v>3</v>
+      </c>
+      <c r="L591" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M591" t="n">
+        <v>36</v>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>735</v>
+      </c>
+      <c r="G592" t="n">
+        <v>32</v>
+      </c>
+      <c r="H592" t="n">
+        <v>67</v>
+      </c>
+      <c r="I592" t="n">
+        <v>2</v>
+      </c>
+      <c r="J592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K592" t="n">
+        <v>15</v>
+      </c>
+      <c r="L592" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M592" t="n">
+        <v>73</v>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O592" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>735</v>
+      </c>
+      <c r="G593" t="n">
+        <v>32</v>
+      </c>
+      <c r="H593" t="n">
+        <v>67</v>
+      </c>
+      <c r="I593" t="n">
+        <v>2</v>
+      </c>
+      <c r="J593" t="n">
+        <v>4</v>
+      </c>
+      <c r="K593" t="n">
+        <v>15</v>
+      </c>
+      <c r="L593" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M593" t="n">
+        <v>73</v>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O593" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>79</v>
+      </c>
+      <c r="G594" t="n">
+        <v>32</v>
+      </c>
+      <c r="H594" t="n">
+        <v>2</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J594" t="n">
+        <v>3</v>
+      </c>
+      <c r="L594" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M594" t="n">
+        <v>83</v>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>79</v>
+      </c>
+      <c r="G595" t="n">
+        <v>32</v>
+      </c>
+      <c r="H595" t="n">
+        <v>2</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
+      <c r="J595" t="n">
+        <v>3</v>
+      </c>
+      <c r="L595" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M595" t="n">
+        <v>83</v>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>70</v>
+      </c>
+      <c r="G596" t="n">
+        <v>32</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>86</v>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>70</v>
+      </c>
+      <c r="G597" t="n">
+        <v>32</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>86</v>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>788</v>
+      </c>
+      <c r="G598" t="n">
+        <v>32</v>
+      </c>
+      <c r="H598" t="n">
+        <v>13</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" t="n">
+        <v>4</v>
+      </c>
+      <c r="K598" t="n">
+        <v>24</v>
+      </c>
+      <c r="L598" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M598" t="n">
+        <v>92</v>
+      </c>
+      <c r="N598" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O598" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>788</v>
+      </c>
+      <c r="G599" t="n">
+        <v>32</v>
+      </c>
+      <c r="H599" t="n">
+        <v>13</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" t="n">
+        <v>4</v>
+      </c>
+      <c r="K599" t="n">
+        <v>24</v>
+      </c>
+      <c r="L599" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M599" t="n">
+        <v>92</v>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O599" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>117</v>
+      </c>
+      <c r="G600" t="n">
+        <v>16</v>
+      </c>
+      <c r="H600" t="n">
+        <v>16</v>
+      </c>
+      <c r="I600" t="n">
+        <v>1</v>
+      </c>
+      <c r="J600" t="n">
+        <v>3</v>
+      </c>
+      <c r="L600" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M600" t="n">
+        <v>120</v>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>117</v>
+      </c>
+      <c r="G601" t="n">
+        <v>16</v>
+      </c>
+      <c r="H601" t="n">
+        <v>16</v>
+      </c>
+      <c r="I601" t="n">
+        <v>1</v>
+      </c>
+      <c r="J601" t="n">
+        <v>3</v>
+      </c>
+      <c r="L601" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M601" t="n">
+        <v>120</v>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>224</v>
+      </c>
+      <c r="G602" t="n">
+        <v>32</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0</v>
+      </c>
+      <c r="J602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" t="n">
+        <v>122</v>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>224</v>
+      </c>
+      <c r="G603" t="n">
+        <v>32</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0</v>
+      </c>
+      <c r="J603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" t="n">
+        <v>122</v>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>20</v>
+      </c>
+      <c r="G604" t="n">
+        <v>32</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>257</v>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>20</v>
+      </c>
+      <c r="G605" t="n">
+        <v>32</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M605" t="n">
+        <v>257</v>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G606" t="n">
+        <v>32</v>
+      </c>
+      <c r="H606" t="n">
+        <v>181</v>
+      </c>
+      <c r="I606" t="n">
+        <v>1</v>
+      </c>
+      <c r="J606" t="n">
+        <v>5</v>
+      </c>
+      <c r="K606" t="n">
+        <v>5</v>
+      </c>
+      <c r="L606" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M606" t="n">
+        <v>321</v>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O606" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G607" t="n">
+        <v>32</v>
+      </c>
+      <c r="H607" t="n">
+        <v>181</v>
+      </c>
+      <c r="I607" t="n">
+        <v>1</v>
+      </c>
+      <c r="J607" t="n">
+        <v>5</v>
+      </c>
+      <c r="K607" t="n">
+        <v>5</v>
+      </c>
+      <c r="L607" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M607" t="n">
+        <v>321</v>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O607" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>116</v>
+      </c>
+      <c r="G608" t="n">
+        <v>32</v>
+      </c>
+      <c r="H608" t="n">
+        <v>2</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0</v>
+      </c>
+      <c r="J608" t="n">
+        <v>4</v>
+      </c>
+      <c r="L608" t="n">
+        <v>58</v>
+      </c>
+      <c r="M608" t="n">
+        <v>327</v>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>116</v>
+      </c>
+      <c r="G609" t="n">
+        <v>32</v>
+      </c>
+      <c r="H609" t="n">
+        <v>2</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0</v>
+      </c>
+      <c r="J609" t="n">
+        <v>4</v>
+      </c>
+      <c r="L609" t="n">
+        <v>58</v>
+      </c>
+      <c r="M609" t="n">
+        <v>327</v>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>362</v>
+      </c>
+      <c r="G610" t="n">
+        <v>32</v>
+      </c>
+      <c r="H610" t="n">
+        <v>3</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0</v>
+      </c>
+      <c r="J610" t="n">
+        <v>4</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L610" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M610" t="n">
+        <v>382</v>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O610" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>362</v>
+      </c>
+      <c r="G611" t="n">
+        <v>32</v>
+      </c>
+      <c r="H611" t="n">
+        <v>3</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>4</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M611" t="n">
+        <v>382</v>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O611" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>49</v>
+      </c>
+      <c r="G612" t="n">
+        <v>16</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>393</v>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>49</v>
+      </c>
+      <c r="G613" t="n">
+        <v>16</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>393</v>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>596</v>
+      </c>
+      <c r="G614" t="n">
+        <v>8</v>
+      </c>
+      <c r="H614" t="n">
+        <v>34</v>
+      </c>
+      <c r="I614" t="n">
+        <v>4</v>
+      </c>
+      <c r="J614" t="n">
+        <v>4</v>
+      </c>
+      <c r="K614" t="n">
+        <v>263</v>
+      </c>
+      <c r="L614" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M614" t="n">
+        <v>393</v>
+      </c>
+      <c r="N614" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O614" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>596</v>
+      </c>
+      <c r="G615" t="n">
+        <v>8</v>
+      </c>
+      <c r="H615" t="n">
+        <v>34</v>
+      </c>
+      <c r="I615" t="n">
+        <v>4</v>
+      </c>
+      <c r="J615" t="n">
+        <v>4</v>
+      </c>
+      <c r="K615" t="n">
+        <v>263</v>
+      </c>
+      <c r="L615" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M615" t="n">
+        <v>393</v>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O615" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>2</v>
+      </c>
+      <c r="G616" t="n">
+        <v>32</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>430</v>
+      </c>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>2</v>
+      </c>
+      <c r="G617" t="n">
+        <v>32</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>430</v>
+      </c>
+      <c r="N617" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>11</v>
+      </c>
+      <c r="G618" t="n">
+        <v>32</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>609</v>
+      </c>
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>11</v>
+      </c>
+      <c r="G619" t="n">
+        <v>32</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>609</v>
+      </c>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>2025-08-09T16:53:49.952Z</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>70</v>
+      </c>
+      <c r="G620" t="n">
+        <v>32</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N620" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>2025-08-09T16:53:49.952Z</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>70</v>
+      </c>
+      <c r="G621" t="n">
+        <v>32</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>2128</v>
+      </c>
+      <c r="G622" t="n">
+        <v>32</v>
+      </c>
+      <c r="H622" t="n">
+        <v>109</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3</v>
+      </c>
+      <c r="J622" t="n">
+        <v>5</v>
+      </c>
+      <c r="K622" t="n">
+        <v>12</v>
+      </c>
+      <c r="L622" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="M622" t="n">
+        <v>7</v>
+      </c>
+      <c r="N622" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O622" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>2128</v>
+      </c>
+      <c r="G623" t="n">
+        <v>32</v>
+      </c>
+      <c r="H623" t="n">
+        <v>109</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3</v>
+      </c>
+      <c r="J623" t="n">
+        <v>5</v>
+      </c>
+      <c r="K623" t="n">
+        <v>12</v>
+      </c>
+      <c r="L623" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="M623" t="n">
+        <v>7</v>
+      </c>
+      <c r="N623" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O623" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>49</v>
+      </c>
+      <c r="G624" t="n">
+        <v>32</v>
+      </c>
+      <c r="H624" t="n">
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>3</v>
+      </c>
+      <c r="L624" t="n">
+        <v>49</v>
+      </c>
+      <c r="M624" t="n">
+        <v>27</v>
+      </c>
+      <c r="N624" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>49</v>
+      </c>
+      <c r="G625" t="n">
+        <v>32</v>
+      </c>
+      <c r="H625" t="n">
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" t="n">
+        <v>3</v>
+      </c>
+      <c r="L625" t="n">
+        <v>49</v>
+      </c>
+      <c r="M625" t="n">
+        <v>27</v>
+      </c>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>3</v>
+      </c>
+      <c r="G626" t="n">
+        <v>32</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M626" t="n">
+        <v>34</v>
+      </c>
+      <c r="N626" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>3</v>
+      </c>
+      <c r="G627" t="n">
+        <v>32</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M627" t="n">
+        <v>34</v>
+      </c>
+      <c r="N627" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>50</v>
+      </c>
+      <c r="G628" t="n">
+        <v>32</v>
+      </c>
+      <c r="H628" t="n">
+        <v>2</v>
+      </c>
+      <c r="I628" t="n">
+        <v>1</v>
+      </c>
+      <c r="J628" t="n">
+        <v>3</v>
+      </c>
+      <c r="L628" t="n">
+        <v>25</v>
+      </c>
+      <c r="M628" t="n">
+        <v>37</v>
+      </c>
+      <c r="N628" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>50</v>
+      </c>
+      <c r="G629" t="n">
+        <v>32</v>
+      </c>
+      <c r="H629" t="n">
+        <v>2</v>
+      </c>
+      <c r="I629" t="n">
+        <v>1</v>
+      </c>
+      <c r="J629" t="n">
+        <v>3</v>
+      </c>
+      <c r="L629" t="n">
+        <v>25</v>
+      </c>
+      <c r="M629" t="n">
+        <v>37</v>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>735</v>
+      </c>
+      <c r="G630" t="n">
+        <v>32</v>
+      </c>
+      <c r="H630" t="n">
+        <v>67</v>
+      </c>
+      <c r="I630" t="n">
+        <v>2</v>
+      </c>
+      <c r="J630" t="n">
+        <v>4</v>
+      </c>
+      <c r="K630" t="n">
+        <v>15</v>
+      </c>
+      <c r="L630" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M630" t="n">
+        <v>74</v>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O630" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>735</v>
+      </c>
+      <c r="G631" t="n">
+        <v>32</v>
+      </c>
+      <c r="H631" t="n">
+        <v>67</v>
+      </c>
+      <c r="I631" t="n">
+        <v>2</v>
+      </c>
+      <c r="J631" t="n">
+        <v>4</v>
+      </c>
+      <c r="K631" t="n">
+        <v>15</v>
+      </c>
+      <c r="L631" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M631" t="n">
+        <v>74</v>
+      </c>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O631" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>79</v>
+      </c>
+      <c r="G632" t="n">
+        <v>32</v>
+      </c>
+      <c r="H632" t="n">
+        <v>2</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>3</v>
+      </c>
+      <c r="L632" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M632" t="n">
+        <v>84</v>
+      </c>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>79</v>
+      </c>
+      <c r="G633" t="n">
+        <v>32</v>
+      </c>
+      <c r="H633" t="n">
+        <v>2</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0</v>
+      </c>
+      <c r="J633" t="n">
+        <v>3</v>
+      </c>
+      <c r="L633" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M633" t="n">
+        <v>84</v>
+      </c>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>788</v>
+      </c>
+      <c r="G634" t="n">
+        <v>32</v>
+      </c>
+      <c r="H634" t="n">
+        <v>13</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" t="n">
+        <v>4</v>
+      </c>
+      <c r="K634" t="n">
+        <v>24</v>
+      </c>
+      <c r="L634" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M634" t="n">
+        <v>93</v>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O634" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>788</v>
+      </c>
+      <c r="G635" t="n">
+        <v>32</v>
+      </c>
+      <c r="H635" t="n">
+        <v>13</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" t="n">
+        <v>4</v>
+      </c>
+      <c r="K635" t="n">
+        <v>24</v>
+      </c>
+      <c r="L635" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M635" t="n">
+        <v>93</v>
+      </c>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O635" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>117</v>
+      </c>
+      <c r="G636" t="n">
+        <v>16</v>
+      </c>
+      <c r="H636" t="n">
+        <v>16</v>
+      </c>
+      <c r="I636" t="n">
+        <v>1</v>
+      </c>
+      <c r="J636" t="n">
+        <v>3</v>
+      </c>
+      <c r="L636" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M636" t="n">
+        <v>121</v>
+      </c>
+      <c r="N636" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>117</v>
+      </c>
+      <c r="G637" t="n">
+        <v>16</v>
+      </c>
+      <c r="H637" t="n">
+        <v>16</v>
+      </c>
+      <c r="I637" t="n">
+        <v>1</v>
+      </c>
+      <c r="J637" t="n">
+        <v>3</v>
+      </c>
+      <c r="L637" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M637" t="n">
+        <v>121</v>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>227</v>
+      </c>
+      <c r="G638" t="n">
+        <v>32</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0</v>
+      </c>
+      <c r="J638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M638" t="n">
+        <v>123</v>
+      </c>
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>227</v>
+      </c>
+      <c r="G639" t="n">
+        <v>32</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" t="n">
+        <v>123</v>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>20</v>
+      </c>
+      <c r="G640" t="n">
+        <v>32</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" t="n">
+        <v>258</v>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>20</v>
+      </c>
+      <c r="G641" t="n">
+        <v>32</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>258</v>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>4242</v>
+      </c>
+      <c r="G642" t="n">
+        <v>32</v>
+      </c>
+      <c r="H642" t="n">
+        <v>181</v>
+      </c>
+      <c r="I642" t="n">
+        <v>2</v>
+      </c>
+      <c r="J642" t="n">
+        <v>5</v>
+      </c>
+      <c r="K642" t="n">
+        <v>5</v>
+      </c>
+      <c r="L642" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="M642" t="n">
+        <v>322</v>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O642" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>4242</v>
+      </c>
+      <c r="G643" t="n">
+        <v>32</v>
+      </c>
+      <c r="H643" t="n">
+        <v>181</v>
+      </c>
+      <c r="I643" t="n">
+        <v>2</v>
+      </c>
+      <c r="J643" t="n">
+        <v>5</v>
+      </c>
+      <c r="K643" t="n">
+        <v>5</v>
+      </c>
+      <c r="L643" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="M643" t="n">
+        <v>322</v>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O643" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>116</v>
+      </c>
+      <c r="G644" t="n">
+        <v>32</v>
+      </c>
+      <c r="H644" t="n">
+        <v>2</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" t="n">
+        <v>4</v>
+      </c>
+      <c r="L644" t="n">
+        <v>58</v>
+      </c>
+      <c r="M644" t="n">
+        <v>328</v>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>116</v>
+      </c>
+      <c r="G645" t="n">
+        <v>32</v>
+      </c>
+      <c r="H645" t="n">
+        <v>2</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" t="n">
+        <v>4</v>
+      </c>
+      <c r="L645" t="n">
+        <v>58</v>
+      </c>
+      <c r="M645" t="n">
+        <v>328</v>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>362</v>
+      </c>
+      <c r="G646" t="n">
+        <v>32</v>
+      </c>
+      <c r="H646" t="n">
+        <v>3</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" t="n">
+        <v>4</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L646" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M646" t="n">
+        <v>383</v>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O646" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>362</v>
+      </c>
+      <c r="G647" t="n">
+        <v>32</v>
+      </c>
+      <c r="H647" t="n">
+        <v>3</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" t="n">
+        <v>4</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L647" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M647" t="n">
+        <v>383</v>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O647" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>49</v>
+      </c>
+      <c r="G648" t="n">
+        <v>16</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M648" t="n">
+        <v>394</v>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>49</v>
+      </c>
+      <c r="G649" t="n">
+        <v>16</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0</v>
+      </c>
+      <c r="J649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M649" t="n">
+        <v>394</v>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>596</v>
+      </c>
+      <c r="G650" t="n">
+        <v>8</v>
+      </c>
+      <c r="H650" t="n">
+        <v>34</v>
+      </c>
+      <c r="I650" t="n">
+        <v>4</v>
+      </c>
+      <c r="J650" t="n">
+        <v>4</v>
+      </c>
+      <c r="K650" t="n">
+        <v>263</v>
+      </c>
+      <c r="L650" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M650" t="n">
+        <v>394</v>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O650" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>596</v>
+      </c>
+      <c r="G651" t="n">
+        <v>8</v>
+      </c>
+      <c r="H651" t="n">
+        <v>34</v>
+      </c>
+      <c r="I651" t="n">
+        <v>4</v>
+      </c>
+      <c r="J651" t="n">
+        <v>4</v>
+      </c>
+      <c r="K651" t="n">
+        <v>263</v>
+      </c>
+      <c r="L651" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M651" t="n">
+        <v>394</v>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O651" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>2</v>
+      </c>
+      <c r="G652" t="n">
+        <v>32</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0</v>
+      </c>
+      <c r="J652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M652" t="n">
+        <v>431</v>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>2</v>
+      </c>
+      <c r="G653" t="n">
+        <v>32</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+      <c r="J653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M653" t="n">
+        <v>431</v>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>11</v>
+      </c>
+      <c r="G654" t="n">
+        <v>32</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M654" t="n">
+        <v>610</v>
+      </c>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>11</v>
+      </c>
+      <c r="G655" t="n">
+        <v>32</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M655" t="n">
+        <v>610</v>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/world_info/scraper/StarRiverArts.xlsx
+++ b/world_info/scraper/StarRiverArts.xlsx
@@ -33083,15 +33083,11 @@
       <c r="J656" t="n">
         <v>0</v>
       </c>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
       <c r="M656" t="inlineStr">
         <is>
           <t>4天</t>
         </is>
       </c>
-      <c r="N656" t="inlineStr"/>
-      <c r="O656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -33134,15 +33130,11 @@
       <c r="J657" t="n">
         <v>0</v>
       </c>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
       <c r="M657" t="inlineStr">
         <is>
           <t>4天</t>
         </is>
       </c>
-      <c r="N657" t="inlineStr"/>
-      <c r="O657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -33185,7 +33177,6 @@
       <c r="J658" t="n">
         <v>0</v>
       </c>
-      <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -33196,8 +33187,6 @@
           <t>8天</t>
         </is>
       </c>
-      <c r="N658" t="inlineStr"/>
-      <c r="O658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -33240,7 +33229,6 @@
       <c r="J659" t="n">
         <v>0</v>
       </c>
-      <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -33251,8 +33239,6 @@
           <t>8天</t>
         </is>
       </c>
-      <c r="N659" t="inlineStr"/>
-      <c r="O659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -33425,7 +33411,6 @@
       <c r="J662" t="n">
         <v>3</v>
       </c>
-      <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
           <t>2.0%</t>
@@ -33436,8 +33421,6 @@
           <t>35天</t>
         </is>
       </c>
-      <c r="N662" t="inlineStr"/>
-      <c r="O662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -33480,7 +33463,6 @@
       <c r="J663" t="n">
         <v>3</v>
       </c>
-      <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
           <t>2.0%</t>
@@ -33491,8 +33473,6 @@
           <t>35天</t>
         </is>
       </c>
-      <c r="N663" t="inlineStr"/>
-      <c r="O663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -33535,7 +33515,6 @@
       <c r="J664" t="n">
         <v>0</v>
       </c>
-      <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -33546,8 +33525,6 @@
           <t>42天</t>
         </is>
       </c>
-      <c r="N664" t="inlineStr"/>
-      <c r="O664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -33590,7 +33567,6 @@
       <c r="J665" t="n">
         <v>0</v>
       </c>
-      <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -33601,8 +33577,6 @@
           <t>42天</t>
         </is>
       </c>
-      <c r="N665" t="inlineStr"/>
-      <c r="O665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -33645,7 +33619,6 @@
       <c r="J666" t="n">
         <v>3</v>
       </c>
-      <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
           <t>1.85%</t>
@@ -33656,8 +33629,6 @@
           <t>45天</t>
         </is>
       </c>
-      <c r="N666" t="inlineStr"/>
-      <c r="O666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -33700,7 +33671,6 @@
       <c r="J667" t="n">
         <v>3</v>
       </c>
-      <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
           <t>1.85%</t>
@@ -33711,8 +33681,6 @@
           <t>45天</t>
         </is>
       </c>
-      <c r="N667" t="inlineStr"/>
-      <c r="O667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -33885,7 +33853,6 @@
       <c r="J670" t="n">
         <v>3</v>
       </c>
-      <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
           <t>2.53%</t>
@@ -33896,8 +33863,6 @@
           <t>92天</t>
         </is>
       </c>
-      <c r="N670" t="inlineStr"/>
-      <c r="O670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -33940,7 +33905,6 @@
       <c r="J671" t="n">
         <v>3</v>
       </c>
-      <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
           <t>2.53%</t>
@@ -33951,8 +33915,6 @@
           <t>92天</t>
         </is>
       </c>
-      <c r="N671" t="inlineStr"/>
-      <c r="O671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -34125,7 +34087,6 @@
       <c r="J674" t="n">
         <v>3</v>
       </c>
-      <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
           <t>14.29%</t>
@@ -34136,8 +34097,6 @@
           <t>129天</t>
         </is>
       </c>
-      <c r="N674" t="inlineStr"/>
-      <c r="O674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -34180,7 +34139,6 @@
       <c r="J675" t="n">
         <v>3</v>
       </c>
-      <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
           <t>14.29%</t>
@@ -34191,8 +34149,6 @@
           <t>129天</t>
         </is>
       </c>
-      <c r="N675" t="inlineStr"/>
-      <c r="O675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -34235,7 +34191,6 @@
       <c r="J676" t="n">
         <v>0</v>
       </c>
-      <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -34246,8 +34201,6 @@
           <t>131天</t>
         </is>
       </c>
-      <c r="N676" t="inlineStr"/>
-      <c r="O676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -34290,7 +34243,6 @@
       <c r="J677" t="n">
         <v>0</v>
       </c>
-      <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -34301,8 +34253,6 @@
           <t>131天</t>
         </is>
       </c>
-      <c r="N677" t="inlineStr"/>
-      <c r="O677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -34345,7 +34295,6 @@
       <c r="J678" t="n">
         <v>0</v>
       </c>
-      <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -34356,8 +34305,6 @@
           <t>266天</t>
         </is>
       </c>
-      <c r="N678" t="inlineStr"/>
-      <c r="O678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -34400,7 +34347,6 @@
       <c r="J679" t="n">
         <v>0</v>
       </c>
-      <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -34411,8 +34357,6 @@
           <t>266天</t>
         </is>
       </c>
-      <c r="N679" t="inlineStr"/>
-      <c r="O679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -34585,7 +34529,6 @@
       <c r="J682" t="n">
         <v>4</v>
       </c>
-      <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
           <t>1.71%</t>
@@ -34596,8 +34539,6 @@
           <t>336天</t>
         </is>
       </c>
-      <c r="N682" t="inlineStr"/>
-      <c r="O682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -34640,7 +34581,6 @@
       <c r="J683" t="n">
         <v>4</v>
       </c>
-      <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
           <t>1.71%</t>
@@ -34651,8 +34591,6 @@
           <t>336天</t>
         </is>
       </c>
-      <c r="N683" t="inlineStr"/>
-      <c r="O683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -34825,7 +34763,6 @@
       <c r="J686" t="n">
         <v>0</v>
       </c>
-      <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -34836,8 +34773,6 @@
           <t>402天</t>
         </is>
       </c>
-      <c r="N686" t="inlineStr"/>
-      <c r="O686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -34880,7 +34815,6 @@
       <c r="J687" t="n">
         <v>0</v>
       </c>
-      <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -34891,8 +34825,6 @@
           <t>402天</t>
         </is>
       </c>
-      <c r="N687" t="inlineStr"/>
-      <c r="O687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -35065,7 +34997,6 @@
       <c r="J690" t="n">
         <v>0</v>
       </c>
-      <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -35076,8 +35007,6 @@
           <t>439天</t>
         </is>
       </c>
-      <c r="N690" t="inlineStr"/>
-      <c r="O690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -35120,7 +35049,6 @@
       <c r="J691" t="n">
         <v>0</v>
       </c>
-      <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -35131,8 +35059,6 @@
           <t>439天</t>
         </is>
       </c>
-      <c r="N691" t="inlineStr"/>
-      <c r="O691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -35175,7 +35101,6 @@
       <c r="J692" t="n">
         <v>0</v>
       </c>
-      <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -35186,8 +35111,6 @@
           <t>618天</t>
         </is>
       </c>
-      <c r="N692" t="inlineStr"/>
-      <c r="O692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -35230,7 +35153,6 @@
       <c r="J693" t="n">
         <v>0</v>
       </c>
-      <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -35241,8 +35163,6 @@
           <t>618天</t>
         </is>
       </c>
-      <c r="N693" t="inlineStr"/>
-      <c r="O693" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O655">
